--- a/results/mp/logistic/corona/confidence/210/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -43,144 +43,153 @@
     <t>arrested</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
     <t>infected</t>
   </si>
   <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>cancelled</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>cut</t>
   </si>
   <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>beginning</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>cut</t>
+    <t>sick</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
+    <t>shortages</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>related</t>
+  </si>
+  <si>
     <t>fight</t>
   </si>
   <si>
     <t>isolation</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
+    <t>buying</t>
+  </si>
+  <si>
     <t>due</t>
   </si>
   <si>
-    <t>buying</t>
-  </si>
-  <si>
     <t>prices</t>
   </si>
   <si>
@@ -199,244 +208,235 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>yes</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>team</t>
+  </si>
+  <si>
+    <t>security</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>give</t>
   </si>
   <si>
-    <t>easter</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
-    <t>article</t>
+    <t>house</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>check</t>
   </si>
   <si>
     <t>keep</t>
   </si>
   <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>year</t>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>staff</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>shop</t>
-  </si>
-  <si>
     <t>employees</t>
   </si>
   <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>stay</t>
   </si>
   <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
     <t>amp</t>
   </si>
   <si>
     <t>need</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>stock</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>go</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
     <t>store</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
 </sst>
 </file>
@@ -794,7 +794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -802,10 +802,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -863,13 +863,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -881,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -913,13 +913,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8947368421052632</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -931,31 +931,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="L4">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>24</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="L4">
-        <v>17</v>
-      </c>
-      <c r="M4">
-        <v>17</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -963,13 +963,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8666666666666667</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1013,13 +1013,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8235294117647058</v>
+        <v>0.8184931506849316</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K6">
-        <v>0.9083333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M6">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1063,13 +1063,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.821917808219178</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C7">
-        <v>240</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>240</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1081,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K7">
         <v>0.8947368421052632</v>
@@ -1113,13 +1113,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8157894736842105</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K8">
-        <v>0.8846153846153846</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1163,13 +1163,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7826086956521739</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K9">
         <v>0.875</v>
       </c>
       <c r="L9">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="M9">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1213,13 +1213,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7777777777777778</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1231,19 +1231,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K10">
-        <v>0.8666666666666667</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1263,13 +1263,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7692307692307693</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1284,16 +1284,16 @@
         <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K11">
-        <v>0.8611111111111112</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1313,13 +1313,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7666666666666667</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1331,19 +1331,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K12">
-        <v>0.8448275862068966</v>
+        <v>0.8407310704960835</v>
       </c>
       <c r="L12">
-        <v>49</v>
+        <v>322</v>
       </c>
       <c r="M12">
-        <v>49</v>
+        <v>322</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1363,13 +1363,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7586206896551724</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K13">
-        <v>0.8433420365535248</v>
+        <v>0.8359375</v>
       </c>
       <c r="L13">
-        <v>323</v>
+        <v>107</v>
       </c>
       <c r="M13">
-        <v>323</v>
+        <v>107</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1413,13 +1413,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7297297297297297</v>
+        <v>0.72</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1431,19 +1431,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K14">
-        <v>0.8297872340425532</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1463,7 +1463,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.72</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C15">
         <v>18</v>
@@ -1481,31 +1481,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K15">
-        <v>0.8181818181818182</v>
+        <v>0.83125</v>
       </c>
       <c r="L15">
+        <v>133</v>
+      </c>
+      <c r="M15">
+        <v>133</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>27</v>
-      </c>
-      <c r="M15">
-        <v>27</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1513,13 +1513,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6956521739130435</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K16">
-        <v>0.8170731707317073</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L16">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1563,13 +1563,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6842105263157895</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K17">
-        <v>0.8169014084507042</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L17">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="M17">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1613,13 +1613,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6271186440677966</v>
+        <v>0.65</v>
       </c>
       <c r="C18">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1631,31 +1631,31 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18">
+        <v>0.7924528301886793</v>
+      </c>
+      <c r="L18">
+        <v>84</v>
+      </c>
+      <c r="M18">
+        <v>84</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>22</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18">
-        <v>0.813953488372093</v>
-      </c>
-      <c r="L18">
-        <v>35</v>
-      </c>
-      <c r="M18">
-        <v>35</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1663,13 +1663,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6153846153846154</v>
+        <v>0.625</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1681,19 +1681,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K19">
-        <v>0.80625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1713,13 +1713,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6</v>
+        <v>0.5978835978835979</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K20">
-        <v>0.8055555555555556</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1763,13 +1763,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5949612403100775</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C21">
-        <v>307</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>307</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1781,19 +1781,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K21">
-        <v>0.796875</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L21">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1813,13 +1813,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5806451612903226</v>
+        <v>0.5717054263565892</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>295</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>295</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1831,19 +1831,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K22">
-        <v>0.7924528301886793</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L22">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="M22">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1863,13 +1863,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5767195767195767</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C23">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1881,31 +1881,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K23">
-        <v>0.7903225806451613</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="L23">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="M23">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="N23">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1913,13 +1913,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5384615384615384</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1931,19 +1931,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K24">
-        <v>0.7857142857142857</v>
+        <v>0.75</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1963,13 +1963,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5277777777777778</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D25">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1981,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K25">
         <v>0.7407407407407407</v>
@@ -2013,13 +2013,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.52</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2034,16 +2034,16 @@
         <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K26">
-        <v>0.7142857142857143</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2063,13 +2063,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5033557046979866</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C27">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K27">
-        <v>0.7083333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2113,13 +2113,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4871794871794872</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="H28">
+        <v>17</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L28">
         <v>20</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K28">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="L28">
-        <v>17</v>
-      </c>
       <c r="M28">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2163,13 +2163,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4814814814814815</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2181,19 +2181,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K29">
-        <v>0.7</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2213,13 +2213,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4727272727272727</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2231,19 +2231,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K30">
-        <v>0.6857142857142857</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L30">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2263,13 +2263,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4727272727272727</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2281,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K31">
         <v>0.6818181818181818</v>
@@ -2313,13 +2313,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4705882352941176</v>
+        <v>0.4899328859060403</v>
       </c>
       <c r="C32">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2331,19 +2331,19 @@
         <v>0</v>
       </c>
       <c r="H32">
+        <v>76</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K32">
+        <v>0.675</v>
+      </c>
+      <c r="L32">
         <v>27</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K32">
-        <v>0.6818181818181818</v>
-      </c>
-      <c r="L32">
-        <v>15</v>
-      </c>
       <c r="M32">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2363,13 +2363,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4666666666666667</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2384,16 +2384,16 @@
         <v>16</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K33">
-        <v>0.68</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L33">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2413,13 +2413,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4533333333333333</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C34">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D34">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2431,19 +2431,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K34">
-        <v>0.6666666666666666</v>
+        <v>0.6647058823529411</v>
       </c>
       <c r="L34">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2463,13 +2463,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4516129032258064</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D35">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K35">
-        <v>0.6615384615384615</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L35">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="M35">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2513,13 +2513,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4375</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D36">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2531,19 +2531,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K36">
-        <v>0.6558823529411765</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L36">
-        <v>223</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>223</v>
+        <v>23</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>117</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2563,13 +2563,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4333333333333333</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D37">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2581,19 +2581,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K37">
-        <v>0.6470588235294118</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L37">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M37">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2613,13 +2613,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4324324324324325</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2631,31 +2631,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K38">
-        <v>0.6428571428571429</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L38">
-        <v>189</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>190</v>
+        <v>17</v>
       </c>
       <c r="N38">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>105</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2663,13 +2663,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4285714285714285</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2684,28 +2684,28 @@
         <v>32</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K39">
-        <v>0.6428571428571429</v>
+        <v>0.6292517006802721</v>
       </c>
       <c r="L39">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="M39">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2713,13 +2713,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C40">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D40">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2731,19 +2731,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K40">
-        <v>0.6401673640167364</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L40">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="M40">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>86</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2763,13 +2763,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3246753246753247</v>
+        <v>0.40625</v>
       </c>
       <c r="C41">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D41">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2781,19 +2781,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K41">
-        <v>0.6382978723404256</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L41">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="M41">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>34</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2813,13 +2813,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3214285714285715</v>
+        <v>0.4</v>
       </c>
       <c r="C42">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="D42">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2831,19 +2831,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K42">
-        <v>0.6285714285714286</v>
+        <v>0.58</v>
       </c>
       <c r="L42">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="M42">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2863,13 +2863,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C43">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D43">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2881,19 +2881,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K43">
-        <v>0.6190476190476191</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2905,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2913,13 +2913,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2745098039215687</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="C44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2931,19 +2931,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K44">
-        <v>0.6067415730337079</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L44">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="M44">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2963,13 +2963,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2711864406779661</v>
+        <v>0.3134920634920635</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2981,19 +2981,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K45">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L45">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M45">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3013,37 +3013,37 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.228494623655914</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C46">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="D46">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="E46">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>287</v>
+        <v>30</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K46">
-        <v>0.5833333333333334</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3063,13 +3063,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1266666666666667</v>
+        <v>0.2875</v>
       </c>
       <c r="C47">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D47">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3081,31 +3081,31 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>262</v>
+        <v>57</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K47">
-        <v>0.5652173913043478</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L47">
+        <v>15</v>
+      </c>
+      <c r="M47">
+        <v>15</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
         <v>13</v>
-      </c>
-      <c r="M47">
-        <v>13</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3113,49 +3113,49 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.08936170212765958</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C48">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D48">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E48">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K48">
-        <v>0.5652173913043478</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L48">
+        <v>14</v>
+      </c>
+      <c r="M48">
+        <v>14</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
         <v>13</v>
-      </c>
-      <c r="M48">
-        <v>13</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3163,13 +3163,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.08191126279863481</v>
+        <v>0.2332439678284182</v>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3181,19 +3181,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K49">
-        <v>0.5555555555555556</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3213,37 +3213,37 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03979238754325259</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="C50">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D50">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E50">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>1110</v>
+        <v>262</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K50">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3263,31 +3263,31 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.03763789746917586</v>
+        <v>0.09246575342465753</v>
       </c>
       <c r="C51">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="D51">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="E51">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
       <c r="F51">
-        <v>0.8200000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>2966</v>
+        <v>265</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K51">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="L51">
         <v>13</v>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3313,37 +3313,37 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.03207547169811321</v>
+        <v>0.07627118644067797</v>
       </c>
       <c r="C52">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="D52">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="E52">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>2052</v>
+        <v>218</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K52">
-        <v>0.5</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L52">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M52">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3363,37 +3363,37 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.02564102564102564</v>
+        <v>0.04257167680278019</v>
       </c>
       <c r="C53">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D53">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="E53">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
       <c r="F53">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>836</v>
+        <v>1102</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K53">
-        <v>0.5</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3413,31 +3413,31 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.00966183574879227</v>
+        <v>0.03371150729335495</v>
       </c>
       <c r="C54">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="D54">
         <v>126</v>
       </c>
       <c r="E54">
-        <v>0.76</v>
+        <v>0.17</v>
       </c>
       <c r="F54">
-        <v>0.24</v>
+        <v>0.83</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>3075</v>
+        <v>2981</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K54">
-        <v>0.5</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L54">
         <v>14</v>
@@ -3455,21 +3455,45 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:17">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.02731983042863872</v>
+      </c>
+      <c r="C55">
+        <v>58</v>
+      </c>
+      <c r="D55">
+        <v>78</v>
+      </c>
+      <c r="E55">
+        <v>0.26</v>
+      </c>
+      <c r="F55">
+        <v>0.74</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>2065</v>
+      </c>
       <c r="J55" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K55">
-        <v>0.4794520547945205</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L55">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M55">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3481,21 +3505,45 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:17">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.02325581395348837</v>
+      </c>
+      <c r="C56">
+        <v>20</v>
+      </c>
+      <c r="D56">
+        <v>27</v>
+      </c>
+      <c r="E56">
+        <v>0.26</v>
+      </c>
+      <c r="F56">
+        <v>0.74</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>840</v>
+      </c>
       <c r="J56" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K56">
-        <v>0.459016393442623</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L56">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M56">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3507,21 +3555,45 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:17">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.008036001285760206</v>
+      </c>
+      <c r="C57">
+        <v>25</v>
+      </c>
+      <c r="D57">
+        <v>115</v>
+      </c>
+      <c r="E57">
+        <v>0.78</v>
+      </c>
+      <c r="F57">
+        <v>0.22</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>3086</v>
+      </c>
       <c r="J57" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K57">
-        <v>0.4516129032258064</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L57">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M57">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3533,15 +3605,15 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="J58" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K58">
-        <v>0.4035087719298245</v>
+        <v>0.359375</v>
       </c>
       <c r="L58">
         <v>23</v>
@@ -3559,47 +3631,47 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="J59" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K59">
-        <v>0.390625</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="L59">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M59">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="J60" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K60">
-        <v>0.3846153846153846</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L60">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M60">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3611,21 +3683,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="J61" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K61">
-        <v>0.3728813559322034</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L61">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M61">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3637,21 +3709,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K62">
-        <v>0.2954545454545455</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L62">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M62">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3663,47 +3735,47 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K63">
-        <v>0.2580645161290323</v>
+        <v>0.2169811320754717</v>
       </c>
       <c r="L63">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M63">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K64">
-        <v>0.2222222222222222</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="L64">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M64">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3715,47 +3787,47 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>56</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K65">
-        <v>0.2037037037037037</v>
+        <v>0.1567567567567568</v>
       </c>
       <c r="L65">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M65">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N65">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>86</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K66">
-        <v>0.1857142857142857</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="L66">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M66">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3767,30 +3839,30 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K67">
-        <v>0.1338028169014084</v>
+        <v>0.1398601398601399</v>
       </c>
       <c r="L67">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M67">
         <v>20</v>
       </c>
       <c r="N67">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
         <v>123</v>
@@ -3798,68 +3870,68 @@
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K68">
-        <v>0.1311475409836066</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="L68">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M68">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N68">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O68">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>159</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K69">
-        <v>0.125</v>
+        <v>0.1172839506172839</v>
       </c>
       <c r="L69">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M69">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N69">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O69">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>98</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K70">
-        <v>0.1038961038961039</v>
+        <v>0.0872093023255814</v>
       </c>
       <c r="L70">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M70">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3871,21 +3943,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>276</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K71">
-        <v>0.1020408163265306</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="L71">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M71">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3897,371 +3969,293 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K72">
-        <v>0.0975609756097561</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="L72">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M72">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N72">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O72">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>148</v>
+        <v>385</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K73">
-        <v>0.09302325581395349</v>
+        <v>0.06840390879478828</v>
       </c>
       <c r="L73">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M73">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>156</v>
+        <v>286</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K74">
-        <v>0.08695652173913043</v>
+        <v>0.06609195402298851</v>
       </c>
       <c r="L74">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M74">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N74">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="O74">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>147</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K75">
-        <v>0.07758620689655173</v>
+        <v>0.06597222222222222</v>
       </c>
       <c r="L75">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M75">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N75">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O75">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>321</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K76">
-        <v>0.0627177700348432</v>
+        <v>0.04281345565749235</v>
       </c>
       <c r="L76">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M76">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N76">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>269</v>
+        <v>313</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K77">
-        <v>0.0625</v>
+        <v>0.0359375</v>
       </c>
       <c r="L77">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M77">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>390</v>
+        <v>617</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K78">
-        <v>0.0453125</v>
+        <v>0.03128491620111732</v>
       </c>
       <c r="L78">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M78">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N78">
-        <v>0.74</v>
+        <v>0.82</v>
       </c>
       <c r="O78">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>611</v>
+        <v>867</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="K79">
-        <v>0.03661971830985915</v>
+        <v>0.02833753148614609</v>
       </c>
       <c r="L79">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M79">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="N79">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="O79">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>342</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="K80">
-        <v>0.03027436140018921</v>
+        <v>0.02017937219730942</v>
       </c>
       <c r="L80">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="M80">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="N80">
-        <v>0.76</v>
+        <v>0.9</v>
       </c>
       <c r="O80">
-        <v>0.24</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>3075</v>
+        <v>874</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="K81">
-        <v>0.02663706992230854</v>
+        <v>0.009592326139088728</v>
       </c>
       <c r="L81">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M81">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="N81">
-        <v>1</v>
+        <v>0.26</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="P81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81">
-        <v>877</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="K82">
-        <v>0.02359550561797753</v>
+        <v>0.007326007326007326</v>
       </c>
       <c r="L82">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M82">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="N82">
-        <v>0.84</v>
+        <v>0.17</v>
       </c>
       <c r="O82">
-        <v>0.16</v>
+        <v>0.83</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="83" spans="10:17">
-      <c r="J83" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K83">
-        <v>0.0208768267223382</v>
-      </c>
-      <c r="L83">
-        <v>20</v>
-      </c>
-      <c r="M83">
-        <v>30</v>
-      </c>
-      <c r="N83">
-        <v>0.67</v>
-      </c>
-      <c r="O83">
-        <v>0.33</v>
-      </c>
-      <c r="P83" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q83">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="84" spans="10:17">
-      <c r="J84" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K84">
-        <v>0.01108433734939759</v>
-      </c>
-      <c r="L84">
-        <v>23</v>
-      </c>
-      <c r="M84">
-        <v>91</v>
-      </c>
-      <c r="N84">
-        <v>0.25</v>
-      </c>
-      <c r="O84">
-        <v>0.75</v>
-      </c>
-      <c r="P84" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q84">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="85" spans="10:17">
-      <c r="J85" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K85">
-        <v>0.008358408559010365</v>
-      </c>
-      <c r="L85">
-        <v>25</v>
-      </c>
-      <c r="M85">
-        <v>141</v>
-      </c>
-      <c r="N85">
-        <v>0.18</v>
-      </c>
-      <c r="O85">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="P85" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q85">
-        <v>2966</v>
+        <v>2981</v>
       </c>
     </row>
   </sheetData>
